--- a/MicroA/transistor.xlsx
+++ b/MicroA/transistor.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24746988-A0D9-4628-A272-8999510212E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C48606-8565-4CFA-838C-929CF6FBE0A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="12180" windowWidth="24150" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="3180" windowWidth="24195" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
   <dimension ref="A2:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +829,16 @@
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>21</v>
+      </c>
+      <c r="V12">
+        <f>720*2</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V13">
+        <f>1440*3</f>
+        <v>4320</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
